--- a/excel/over_traffic_202308.xlsx
+++ b/excel/over_traffic_202308.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>611</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>611</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>355</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>844</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2255</t>
+          <t>3454</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>765</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>931</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>488</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>1423</t>
         </is>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>958</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2956</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>509</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3470</t>
+          <t>3979</t>
         </is>
       </c>
     </row>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>864</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1974,17 +1974,17 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>811</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>2,824</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>1,388</t>
+          <t>2,153</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2,092</t>
+          <t>2,592</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>8,824</t>
+          <t>14,354</t>
         </is>
       </c>
     </row>
